--- a/interestelar_100.xlsx
+++ b/interestelar_100.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pruebasaluuclm-my.sharepoint.com/personal/miguelangel_tarancon_uclm_es/Documents/Documentos/curso/material MAAEE/Curso 24_25/R Lite/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pruebasaluuclm-my.sharepoint.com/personal/miguelangel_tarancon_uclm_es/Documents/Documentos/curso/Cursos de Datos/New Book/RStars-book/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="69" documentId="8_{B3B75BCC-7F0B-4E4C-AD29-B2AC76E43FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA021B26-35C8-4817-9427-3589582F3C0D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inicio" sheetId="1" r:id="rId1"/>
@@ -1000,10 +1000,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{24844CFD-BDB6-42DA-A301-5814728C3E15}" name="Tabla2" displayName="Tabla2" ref="A1:C27" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A1:C27" xr:uid="{24844CFD-BDB6-42DA-A301-5814728C3E15}">
@@ -1294,7 +1290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
@@ -1335,7 +1331,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1654,7 +1650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC159"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
